--- a/public/static/工作组动态-工作组每日工作动态统计表.xlsx
+++ b/public/static/工作组动态-工作组每日工作动态统计表.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>工作组日志动态</t>
   </si>
@@ -117,10 +117,7 @@
     <t>综合协调组</t>
   </si>
   <si>
-    <t>灾害监测与防控组</t>
-  </si>
-  <si>
-    <t>（技术保障组）</t>
+    <t>灾害监测与防控组（技术保障组）</t>
   </si>
   <si>
     <t>抢险救援组</t>
@@ -1420,7 +1417,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="14" customHeight="1" outlineLevelCol="6"/>
@@ -1517,7 +1514,7 @@
       <formula1>雅安市县区列表!$B$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>工作组!$A$2:$A$18</formula1>
+      <formula1>工作组!$A$2:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
       <formula1>报送部门!$A$2:$A$17</formula1>
@@ -1635,7 +1632,7 @@
       </c>
       <c r="B2" s="10">
         <f ca="1">NOW()</f>
-        <v>45612.7237847222</v>
+        <v>45614.7116203704</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1691,10 +1688,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14" customHeight="1"/>
@@ -1787,10 +1784,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:1">
-      <c r="A18" s="5" t="s">
-        <v>43</v>
-      </c>
+    <row r="26" customHeight="1" spans="1:1">
+      <c r="A26" s="6"/>
     </row>
     <row r="27" customHeight="1" spans="1:1">
       <c r="A27" s="6"/>
@@ -1800,9 +1795,6 @@
     </row>
     <row r="29" customHeight="1" spans="1:1">
       <c r="A29" s="6"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1826,87 +1818,87 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/工作组动态-工作组每日工作动态统计表.xlsx
+++ b/public/static/工作组动态-工作组每日工作动态统计表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\big_project\yaan_project\yaan-vue3\public\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C50BA39-AC1A-40DF-B830-25E12932C5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作组日志动态" sheetId="1" r:id="rId1"/>
@@ -22,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>工作组日志动态</t>
   </si>
@@ -205,20 +209,25 @@
   </si>
   <si>
     <t>市委组织部</t>
+  </si>
+  <si>
+    <t>统计截止时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计截止时间
+格式：2025/1/8  10:28:00</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +240,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -238,6 +248,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -245,6 +256,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -258,6 +270,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -265,184 +278,45 @@
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,182 +335,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -666,30 +366,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -730,11 +406,29 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -743,255 +437,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,13 +454,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1035,120 +484,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1406,29 +805,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="14" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="22.4609375" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="22.5" style="25"/>
-    <col min="3" max="3" width="31.3333333333333" style="26" customWidth="1"/>
-    <col min="4" max="4" width="60.75" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="22.5" style="25"/>
+    <col min="1" max="2" width="22.4609375" style="21"/>
+    <col min="3" max="3" width="31.3046875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="60.765625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="22.4609375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="14" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1439,65 +839,65 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:7" ht="14" customHeight="1">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
+    <row r="3" spans="1:7" ht="14" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:7" ht="14" customHeight="1">
+      <c r="A4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" ht="26.4" customHeight="1" spans="1:7">
-      <c r="A5" s="33" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.4" customHeight="1">
+      <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="11" customHeight="1" spans="4:4">
-      <c r="D11" s="26"/>
-    </row>
-    <row r="12" customHeight="1" spans="4:4">
-      <c r="D12" s="34"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="11" spans="1:7" ht="14" customHeight="1">
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="14" customHeight="1">
+      <c r="D12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1505,186 +905,202 @@
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C2 A4:A5 C6:C1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
-      <formula1>雅安市县区列表!$A$2:$A$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>雅安市县区列表!$B$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>工作组!$A$2:$A$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>报送部门!$A$2:$A$17</formula1>
-    </dataValidation>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C2 A4:A5 C6:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>雅安市县区列表!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>工作组!$A$2:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>报送部门!$A$2:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14" customHeight="1" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.6666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.3333333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.3333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.3046875" style="3" customWidth="1"/>
     <col min="4" max="5" width="16" style="3" customWidth="1"/>
-    <col min="6" max="7" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.3046875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="14" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="14" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" s="14" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A3" s="22" t="s">
+      <c r="F2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" ht="42" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="22.61328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:2" ht="16.5">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <f ca="1">NOW()</f>
-        <v>45614.7116203704</v>
+        <v>45665.466093402778</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" ht="16.5" spans="1:2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1694,126 +1110,125 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="34.3828125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="14" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1" ht="14" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:1" ht="14" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:1" ht="14" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1" ht="14" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:1" ht="14" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:1" ht="14" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:1" ht="14" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1" ht="14" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:1" ht="14" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:1" ht="14" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:1" ht="14" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:1" ht="14" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:1">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:1" ht="14" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:1">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:1" ht="14" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:1">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:1" ht="14" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1" ht="14" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" s="6"/>
+    <row r="26" spans="1:1" ht="14" customHeight="1">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" ht="14" customHeight="1">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1" ht="14" customHeight="1">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1" ht="14" customHeight="1">
+      <c r="A29" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="52.75" customWidth="1"/>
+    <col min="1" max="1" width="52.765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1902,7 +1317,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>